--- a/25-terme-nomenclature-à-changer-sur-la-page-annexe-nomenclature/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/25-terme-nomenclature-à-changer-sur-la-page-annexe-nomenclature/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-10T12:15:31+00:00</t>
+    <t>2025-09-10T12:25:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/25-terme-nomenclature-à-changer-sur-la-page-annexe-nomenclature/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/25-terme-nomenclature-à-changer-sur-la-page-annexe-nomenclature/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-10T12:25:51+00:00</t>
+    <t>2025-09-10T12:36:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/25-terme-nomenclature-à-changer-sur-la-page-annexe-nomenclature/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/25-terme-nomenclature-à-changer-sur-la-page-annexe-nomenclature/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-10T12:36:22+00:00</t>
+    <t>2025-09-19T12:35:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
